--- a/data/trans_dic/P1421-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1421-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02363263619149951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07319608813149349</v>
+        <v>0.0731960881314935</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06153359733890575</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02734961860212734</v>
+        <v>0.02650163014603856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009262413383271075</v>
+        <v>0.009125156045697632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01591867782166189</v>
+        <v>0.01503186494370126</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05116779665205785</v>
+        <v>0.05039262921061168</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04722809291124037</v>
+        <v>0.04809355906340135</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05383020252431024</v>
+        <v>0.05347855192767642</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0569035302648549</v>
+        <v>0.05541442853842481</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1362985481605487</v>
+        <v>0.133112798037041</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04289078449339324</v>
+        <v>0.04276409635545494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03449966730212511</v>
+        <v>0.03459736742648085</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04077038898789546</v>
+        <v>0.04006854085640246</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1028427392142304</v>
+        <v>0.1029542258129817</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06047337075761102</v>
+        <v>0.05824181597937195</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02650048208782801</v>
+        <v>0.02624180221395465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03534995871146047</v>
+        <v>0.03435107305313987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1056786613994313</v>
+        <v>0.1019232558491976</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07884550783189022</v>
+        <v>0.07796342984338514</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08476886290349735</v>
+        <v>0.08536037297400857</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08527735874921899</v>
+        <v>0.0853592741378882</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1884228441501307</v>
+        <v>0.1828939692311405</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06587940856828282</v>
+        <v>0.06540181942627095</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05334668405578104</v>
+        <v>0.0532200688159916</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05878878122772497</v>
+        <v>0.05793998309581957</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1391778611875734</v>
+        <v>0.1385578125831968</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.008204225620283341</v>
+        <v>0.007951684352829868</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003251820790009827</v>
+        <v>0.002896941599945101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005689199857436515</v>
+        <v>0.005279376524330944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02430664274514864</v>
+        <v>0.0235299040473695</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04921063692045297</v>
+        <v>0.04971479334533368</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03343795425467571</v>
+        <v>0.03258806892465312</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04458830546666307</v>
+        <v>0.04493354416811521</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08976237669679861</v>
+        <v>0.09068064903436321</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02959149395184663</v>
+        <v>0.03127987268360298</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02031993299071846</v>
+        <v>0.01998310488675308</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02821548146314942</v>
+        <v>0.02781837277164222</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06193842446334175</v>
+        <v>0.06255419239089499</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0227417165721622</v>
+        <v>0.02269915364198756</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01474698393854271</v>
+        <v>0.01351811613176152</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0191722029216459</v>
+        <v>0.01924686689867902</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04617029708380043</v>
+        <v>0.04782365528720534</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07989047804732297</v>
+        <v>0.07898292838104344</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05790411182381465</v>
+        <v>0.05794392685901426</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07525443938134788</v>
+        <v>0.07455419366339602</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1225604726319246</v>
+        <v>0.1233376344079965</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04649412207125651</v>
+        <v>0.04747764288196003</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03401440839278162</v>
+        <v>0.03409364300198119</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04581028718647072</v>
+        <v>0.04464481196953474</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08183935611069021</v>
+        <v>0.08386359271402831</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03387585740990909</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09574755733972848</v>
+        <v>0.09574755733972846</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03123590608999966</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01508420608670218</v>
+        <v>0.01515450596205193</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0104310628884253</v>
+        <v>0.01050844959392808</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003754769321103803</v>
+        <v>0.003526551294356635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02603217869581693</v>
+        <v>0.02513677332754066</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03063689450983485</v>
+        <v>0.02963228222227218</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02987893393666986</v>
+        <v>0.02985784577459538</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02303146770167577</v>
+        <v>0.02298962355555802</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08003272784599583</v>
+        <v>0.08063642520753128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02428278016300505</v>
+        <v>0.02442560692209679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02272105182799046</v>
+        <v>0.02265839507930229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01403013657304549</v>
+        <v>0.01399417745284062</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05691388093012214</v>
+        <v>0.05618267216780301</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03268167160091801</v>
+        <v>0.03288077313482672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0281842512350628</v>
+        <v>0.02813253560420133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01686684328540553</v>
+        <v>0.01688815052842156</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04961823964311123</v>
+        <v>0.04893435958298537</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05724389115795436</v>
+        <v>0.05436964070219887</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05822645372771407</v>
+        <v>0.05949414050287444</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04765765001928359</v>
+        <v>0.04908474002450645</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1131615729451994</v>
+        <v>0.1119907136428824</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04043732551156195</v>
+        <v>0.0387863831569287</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.039736758794341</v>
+        <v>0.03981031707267922</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02870164173342411</v>
+        <v>0.0284361364609575</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.0766204416937155</v>
+        <v>0.0767300324250878</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.04004754100847786</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1148444876775332</v>
+        <v>0.1148444876775331</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05400064874875101</v>
@@ -1105,7 +1105,7 @@
         <v>0.02405396964845085</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08101174764611391</v>
+        <v>0.08101174764611388</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01774218666255089</v>
+        <v>0.01894186509993952</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002211947569261995</v>
+        <v>0.002220538280865901</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03680982165985464</v>
+        <v>0.03495938153513344</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05592904273543285</v>
+        <v>0.05591832332864004</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03537919461150116</v>
+        <v>0.03583170590338649</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02462430833697909</v>
+        <v>0.02358839280199127</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09858608863590097</v>
+        <v>0.09697479380955402</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03858292117814819</v>
+        <v>0.0390064790419057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01946125461072496</v>
+        <v>0.01856052542126796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01517198015941125</v>
+        <v>0.01546200432023455</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06957552560419562</v>
+        <v>0.06912314678171036</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05443767720885803</v>
+        <v>0.05404304855736426</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01239062139117795</v>
+        <v>0.01397087739935391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02204130264858754</v>
+        <v>0.02164351213232272</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06608304899407624</v>
+        <v>0.06679028409089496</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1163776898884942</v>
+        <v>0.1168923433773962</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07917375518545956</v>
+        <v>0.08134376985447646</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06158571413097713</v>
+        <v>0.06141076187730235</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1359897783200219</v>
+        <v>0.137016005633584</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07141856536752779</v>
+        <v>0.07249291243119364</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03977579713459096</v>
+        <v>0.04138212001987031</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0365204792102394</v>
+        <v>0.03677907385416378</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09402981583682327</v>
+        <v>0.09469685303097754</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.01421777949147338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04423665727499631</v>
+        <v>0.0442366572749963</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05821253161885775</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01957400505519679</v>
+        <v>0.01927915739711463</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008785681747443558</v>
+        <v>0.00845846025937318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01081840413882181</v>
+        <v>0.01067907875415316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03763914182666483</v>
+        <v>0.03741346155506374</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05049203416143532</v>
+        <v>0.04974164623067526</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04530508861702855</v>
+        <v>0.04576881516531745</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04726465570928661</v>
+        <v>0.0468787090439996</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1058443187696168</v>
+        <v>0.104597240222064</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0368813127759378</v>
+        <v>0.03700516482237628</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02837830240912724</v>
+        <v>0.02862807936851748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03040832961328408</v>
+        <v>0.03033157074199937</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07450829223739128</v>
+        <v>0.07430454580171729</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03080016684891477</v>
+        <v>0.03006117331912262</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01619393933136621</v>
+        <v>0.01624867636375356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01878300152249378</v>
+        <v>0.01869808055146666</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05214969378024913</v>
+        <v>0.05253377693768656</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06688642475824286</v>
+        <v>0.06624213698663931</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06014573016983315</v>
+        <v>0.06085234774094797</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06342979693281697</v>
+        <v>0.06344747774735718</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1227960722600238</v>
+        <v>0.1233323602191226</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04681835384601132</v>
+        <v>0.04670526812784592</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03749413898602889</v>
+        <v>0.03724280091340448</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03965392189474915</v>
+        <v>0.03926222563240422</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08612842071473804</v>
+        <v>0.08620122169631471</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15976</v>
+        <v>15481</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9669</v>
+        <v>9526</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17956</v>
+        <v>16956</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25386</v>
+        <v>25001</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43560</v>
+        <v>44358</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60217</v>
+        <v>59824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>71673</v>
+        <v>69798</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84905</v>
+        <v>82920</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>64614</v>
+        <v>64423</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>74609</v>
+        <v>74820</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>97342</v>
+        <v>95666</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>115088</v>
+        <v>115213</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35325</v>
+        <v>34021</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27665</v>
+        <v>27395</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39875</v>
+        <v>38748</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52431</v>
+        <v>50567</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>72722</v>
+        <v>71908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>94827</v>
+        <v>95489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>107412</v>
+        <v>107515</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>117375</v>
+        <v>113931</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>99246</v>
+        <v>98526</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115367</v>
+        <v>115093</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>140362</v>
+        <v>138335</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>155749</v>
+        <v>155055</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8843</v>
+        <v>8571</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3177</v>
+        <v>2831</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5170</v>
+        <v>4798</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23311</v>
+        <v>22566</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52042</v>
+        <v>52575</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36525</v>
+        <v>35597</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>44877</v>
+        <v>45224</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>100031</v>
+        <v>101055</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63191</v>
+        <v>66796</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>42050</v>
+        <v>41353</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>54041</v>
+        <v>53281</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>128426</v>
+        <v>129702</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24513</v>
+        <v>24467</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14409</v>
+        <v>13208</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17424</v>
+        <v>17492</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44279</v>
+        <v>45865</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84487</v>
+        <v>83527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63250</v>
+        <v>63294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>75742</v>
+        <v>75037</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>136581</v>
+        <v>137447</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>99285</v>
+        <v>101385</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70389</v>
+        <v>70553</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>87740</v>
+        <v>85508</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>169689</v>
+        <v>173886</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16918</v>
+        <v>16997</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9222</v>
+        <v>9290</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3093</v>
+        <v>2905</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27242</v>
+        <v>26305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>30451</v>
+        <v>29453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26168</v>
+        <v>26149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17759</v>
+        <v>17726</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83676</v>
+        <v>84307</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51371</v>
+        <v>51673</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>39986</v>
+        <v>39876</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22376</v>
+        <v>22318</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>119064</v>
+        <v>117534</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36656</v>
+        <v>36879</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24917</v>
+        <v>24872</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13894</v>
+        <v>13912</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51924</v>
+        <v>51209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56897</v>
+        <v>54040</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50994</v>
+        <v>52105</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>36747</v>
+        <v>37847</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>118313</v>
+        <v>117089</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85547</v>
+        <v>82054</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69932</v>
+        <v>70061</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45774</v>
+        <v>45350</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>160290</v>
+        <v>160519</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7934</v>
+        <v>8471</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35924</v>
+        <v>34118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19081</v>
+        <v>19077</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16017</v>
+        <v>16222</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12058</v>
+        <v>11551</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>89541</v>
+        <v>88077</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30417</v>
+        <v>30751</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>18600</v>
+        <v>17739</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15117</v>
+        <v>15406</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>131093</v>
+        <v>130240</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24345</v>
+        <v>24168</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6233</v>
+        <v>7028</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11168</v>
+        <v>10967</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64492</v>
+        <v>65183</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39703</v>
+        <v>39879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>35845</v>
+        <v>36827</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>30158</v>
+        <v>30073</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>123513</v>
+        <v>124445</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56303</v>
+        <v>57150</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>38016</v>
+        <v>39551</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36389</v>
+        <v>36647</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>177169</v>
+        <v>178426</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>63240</v>
+        <v>62288</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>29943</v>
+        <v>28827</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>36429</v>
+        <v>35959</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>130893</v>
+        <v>130108</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>167380</v>
+        <v>164892</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>160358</v>
+        <v>161999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>166693</v>
+        <v>165331</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>390683</v>
+        <v>386080</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>241418</v>
+        <v>242228</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>197162</v>
+        <v>198897</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>209637</v>
+        <v>209108</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>534127</v>
+        <v>532666</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99510</v>
+        <v>97123</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55191</v>
+        <v>55377</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>63248</v>
+        <v>62962</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>181355</v>
+        <v>182691</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>221726</v>
+        <v>219591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>212886</v>
+        <v>215388</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>223704</v>
+        <v>223766</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>453253</v>
+        <v>455233</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>306463</v>
+        <v>305723</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>260495</v>
+        <v>258749</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>273377</v>
+        <v>270677</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>617428</v>
+        <v>617950</v>
       </c>
     </row>
     <row r="24">
